--- a/xlsx/发达国家_intext.xlsx
+++ b/xlsx/发达国家_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="450">
   <si>
     <t>发达国家</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>未開發國家</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_发达国家</t>
+    <t>未开发国家</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9D%87%E5%9B%BD%E6%B0%91%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>自然資源</t>
+    <t>自然资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -515,33 +515,30 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>後工業化</t>
+    <t>后工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/GDP</t>
   </si>
   <si>
@@ -557,15 +554,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>发展中国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -641,31 +635,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>殖民主義</t>
+    <t>殖民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9D%E5%89%8A</t>
   </si>
   <si>
-    <t>剝削</t>
+    <t>剥削</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%8D</t>
   </si>
   <si>
-    <t>亞洲四小龍</t>
+    <t>亚洲四小龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -689,31 +683,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波羅的海</t>
+    <t>波罗的海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
+    <t>东欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國中央情報局</t>
+    <t>美国中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -755,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
@@ -809,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -821,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -863,37 +854,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -917,19 +908,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1001,33 +992,27 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E6%B3%81</t>
   </si>
   <si>
-    <t>世界概況</t>
+    <t>世界概况</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%94%B6%E5%85%A5%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>高收入經濟體</t>
+    <t>高收入经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%BC%80%E5%8F%91%E8%AE%A1%E5%88%92%E7%BD%B2</t>
   </si>
   <si>
-    <t>联合国开发计划署</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
   </si>
   <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E4%BA%BA%E4%BF%A1%E6%81%AF%E7%A4%BE</t>
   </si>
   <si>
@@ -1055,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%80%B1%E5%88%8A</t>
   </si>
   <si>
-    <t>新聞週刊</t>
+    <t>新闻周刊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legatum</t>
@@ -1067,25 +1052,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%B9%81%E6%A6%AE%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球繁榮指數</t>
+    <t>全球繁荣指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>八大工業國組織</t>
+    <t>八大工业国组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -1115,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -1127,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1139,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4</t>
@@ -1193,13 +1175,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
@@ -1211,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%9C%A3%E9%A9%AC%E4%B8%81</t>
@@ -1223,19 +1205,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
@@ -1253,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
@@ -1265,25 +1247,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1295,13 +1277,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1319,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%94%BF%E7%AD%96%E7%A0%94%E7%A9%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>國家政策研究基金會</t>
+    <t>国家政策研究基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -1331,13 +1313,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E4%B8%BB%E8%A8%88%E7%B8%BD%E8%99%95</t>
   </si>
   <si>
-    <t>行政院主計總處</t>
+    <t>行政院主计总处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B5%B1%E8%A8%88%E6%9A%A8%E6%99%AE%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>澳門統計暨普查局</t>
+    <t>澳门统计暨普查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OECD</t>
@@ -1349,13 +1331,13 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%99%BC%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>開發中國家</t>
+    <t>开发中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%B8%8D%E5%8F%91%E8%BE%BE%E5%9B%BD%E5%AE%B6</t>
@@ -4305,7 +4287,7 @@
         <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4331,10 +4313,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4360,10 +4342,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>15</v>
@@ -4389,10 +4371,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4418,10 +4400,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4447,10 +4429,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4476,10 +4458,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4505,10 +4487,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4534,10 +4516,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -4563,10 +4545,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4592,10 +4574,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4621,10 +4603,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4650,10 +4632,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4679,10 +4661,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4708,10 +4690,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4737,10 +4719,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4766,10 +4748,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4795,10 +4777,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4824,10 +4806,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4853,10 +4835,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4882,10 +4864,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4911,10 +4893,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4940,10 +4922,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -4969,10 +4951,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4998,10 +4980,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5027,10 +5009,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5056,10 +5038,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5085,10 +5067,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5143,10 +5125,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5172,10 +5154,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -5201,10 +5183,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>6</v>
@@ -5230,10 +5212,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5259,10 +5241,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5288,10 +5270,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5317,10 +5299,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5346,10 +5328,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5375,10 +5357,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5404,10 +5386,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5433,10 +5415,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>9</v>
@@ -5462,10 +5444,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5491,10 +5473,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5520,10 +5502,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5549,10 +5531,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5578,10 +5560,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -5607,10 +5589,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5636,10 +5618,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>30</v>
@@ -5665,10 +5647,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5694,10 +5676,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5723,10 +5705,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5752,10 +5734,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5781,10 +5763,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5810,10 +5792,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5839,10 +5821,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5868,10 +5850,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5897,10 +5879,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5926,10 +5908,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5955,10 +5937,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5984,10 +5966,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6013,10 +5995,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6042,10 +6024,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6071,10 +6053,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6100,10 +6082,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6129,10 +6111,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6158,10 +6140,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6187,10 +6169,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6216,10 +6198,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6245,10 +6227,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6274,10 +6256,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6303,10 +6285,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6332,10 +6314,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6361,10 +6343,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6390,10 +6372,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6419,10 +6401,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6448,10 +6430,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6477,10 +6459,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6506,10 +6488,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6535,10 +6517,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6564,10 +6546,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6593,10 +6575,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6622,10 +6604,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6651,10 +6633,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>192</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6680,10 +6662,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6709,10 +6691,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6738,10 +6720,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6767,10 +6749,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6796,10 +6778,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6825,10 +6807,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6854,10 +6836,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6883,10 +6865,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6912,10 +6894,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6941,10 +6923,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6970,10 +6952,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6999,10 +6981,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7028,10 +7010,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7057,10 +7039,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7086,10 +7068,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7115,10 +7097,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7144,10 +7126,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7173,10 +7155,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7202,10 +7184,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7231,10 +7213,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7260,10 +7242,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7289,10 +7271,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7318,10 +7300,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7347,10 +7329,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7376,10 +7358,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7405,10 +7387,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7434,10 +7416,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7463,10 +7445,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7492,10 +7474,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7521,10 +7503,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7550,10 +7532,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7579,10 +7561,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7608,10 +7590,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7637,10 +7619,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7666,10 +7648,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7695,10 +7677,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7724,10 +7706,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7753,10 +7735,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7782,10 +7764,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7811,10 +7793,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7840,10 +7822,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7869,10 +7851,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7898,10 +7880,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7927,10 +7909,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7956,10 +7938,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7985,10 +7967,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8014,10 +7996,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8043,10 +8025,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8072,10 +8054,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8101,10 +8083,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8130,10 +8112,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8159,10 +8141,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8188,10 +8170,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8217,10 +8199,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>6</v>
@@ -8246,10 +8228,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F225" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -8275,10 +8257,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8333,10 +8315,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8362,10 +8344,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8391,10 +8373,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8420,10 +8402,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8449,10 +8431,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8478,10 +8460,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
